--- a/data/trans_dic/P55$auxiliar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,66</t>
+          <t>0,0; 34,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -754,12 +755,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 68,12</t>
+          <t>0,0; 53,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,06</t>
+          <t>0,0; 20,13</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -774,12 +775,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,87</t>
+          <t>0,0; 39,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 17,05</t>
+          <t>2,0; 18,1</t>
         </is>
       </c>
     </row>
@@ -869,7 +870,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 62,59</t>
+          <t>0,0; 61,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,88</t>
+          <t>0,0; 19,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -894,12 +895,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 70,39</t>
+          <t>0,0; 70,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,18; 40,31</t>
+          <t>8,11; 41,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +910,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,7</t>
+          <t>0,0; 37,02</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,88</t>
+          <t>0,0; 37,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,33; 24,73</t>
+          <t>5,87; 24,42</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1010,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,75</t>
+          <t>0,0; 22,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,68; 35,62</t>
+          <t>10,24; 36,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,7 +1030,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,16; 52,06</t>
+          <t>11,14; 51,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 42,37</t>
+          <t>12,98; 43,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,7 +1050,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,79; 29,32</t>
+          <t>5,21; 29,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,15; 33,93</t>
+          <t>15,1; 33,2</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,78</t>
+          <t>0,0; 5,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,05</t>
+          <t>1,54; 12,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 18,85</t>
+          <t>2,02; 18,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 32,54</t>
+          <t>16,09; 32,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,57</t>
+          <t>0,0; 23,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,22</t>
+          <t>0,0; 27,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,78</t>
+          <t>0,0; 27,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 32,84</t>
+          <t>14,21; 32,95</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,55</t>
+          <t>0,0; 7,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 11,22</t>
+          <t>1,2; 10,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,24; 16,09</t>
+          <t>2,21; 15,58</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,96; 29,5</t>
+          <t>17,78; 30,46</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1290,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 32,4</t>
+          <t>6,0; 30,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,67; 14,62</t>
+          <t>1,66; 15,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,98; 29,73</t>
+          <t>7,24; 28,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 25,78</t>
+          <t>2,8; 25,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,23; 33,6</t>
+          <t>14,64; 34,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,63</t>
+          <t>0,0; 9,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>22,83; 35,8</t>
+          <t>22,52; 35,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 17,14</t>
+          <t>1,82; 18,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>13,84; 29,49</t>
+          <t>13,92; 29,04</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 8,86</t>
+          <t>0,94; 10,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>20,1; 31,21</t>
+          <t>20,37; 31,38</t>
         </is>
       </c>
     </row>
@@ -1444,42 +1445,42 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,51</t>
+          <t>0,78; 6,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,52; 24,82</t>
+          <t>12,02; 25,16</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,12; 13,94</t>
+          <t>4,39; 14,4</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>18,94; 28,94</t>
+          <t>19,38; 29,53</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 7,08</t>
+          <t>0,77; 7,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,52; 24,82</t>
+          <t>12,02; 25,16</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,12; 13,94</t>
+          <t>4,39; 14,4</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,01; 29,36</t>
+          <t>18,59; 28,67</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,37</t>
+          <t>0,0; 3,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,38; 13,59</t>
+          <t>4,28; 14,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,63</t>
+          <t>2,08; 9,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>13,94; 23,35</t>
+          <t>13,83; 23,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,99; 7,38</t>
+          <t>1,87; 7,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,97; 23,92</t>
+          <t>14,2; 23,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 10,51</t>
+          <t>3,98; 11,6</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,99; 27,82</t>
+          <t>21,22; 27,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,09</t>
+          <t>1,62; 5,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>11,57; 18,71</t>
+          <t>11,63; 19,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,35</t>
+          <t>3,68; 9,07</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>19,82; 25,59</t>
+          <t>19,83; 25,19</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población a la que, al menos, le ayuda los Servicios Sociales cuando tiene dificultades en la actividades instrumentales</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1138</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1211</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1728</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1901</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1953</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1634</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4110</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1803</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1448</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4290</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2789</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1944</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5950</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>518; 4680</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2109</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1080</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2988</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2109</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1262</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4068</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1844</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5892</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1560</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 3468</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1636</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1828</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 4739</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>1113; 5652</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1911</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6781</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6553</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1829; 7612</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1017</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4367</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5499</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5574</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6516</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9941</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1630</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5587</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2170; 7647</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1726</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2117; 9806</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2199</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2749; 9147</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1731</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2263; 12965</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1895</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6396; 14064</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3244</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3257</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17231</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1167</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1098</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1698</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8660</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4955</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>25891</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 4217</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1045; 8761</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>806; 7400</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11590; 23373</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5575</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 5810</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 9001</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5512; 12779</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 6725</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1066; 9666</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1608; 11326</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>19704; 33759</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>5476</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2554</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4732</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19769</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1271</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26927</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25245</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3825</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>31659</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1694</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2163; 10860</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>784; 7180</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2176; 8648</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1021; 9316</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>12234; 28983</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5191</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>20993; 33206</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>956; 9493</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>16649; 34733</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>939; 10226</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>25104; 38687</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>25329</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>12111</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>33673</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4426</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>25329</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12111</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>33673</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 705</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 778</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>1125; 9953</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>17195; 36008</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>6472; 21209</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>27319; 41636</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1113; 10419</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>17195; 36008</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>6472; 21209</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>26618; 41036</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>836</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>11846</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>5811</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>28547</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>9646</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>51695</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>17553</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>78412</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>10482</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>63540</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>23364</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>106959</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 4607</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6250; 20530</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>2529; 12082</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>21414; 36874</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4324; 17142</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>39561; 66152</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>10508; 30651</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>68266; 89991</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>5776; 19551</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>49403; 81041</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>14173; 34972</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>94528; 120078</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P55$auxiliar-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$auxiliar-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
